--- a/biology/Histoire de la zoologie et de la botanique/Pierre-Louis_Duclos/Pierre-Louis_Duclos.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre-Louis_Duclos/Pierre-Louis_Duclos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Louis Duclos (1783-1853) est un malacologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut élève de Lamarck.
 </t>
@@ -542,9 +556,11 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection de Duclos, constituée de 80 000 spécimens provenant du monde entier et représentant tous les groupes de mollusques, fut acquise en 1854 par Henri Lecoq. Elle est conservée au Muséum d'histoire naturelle Henri Lecoq de Clermont-Ferrand. Elle inclut tous les « types » ( spécimens de référence) de ses espèces[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection de Duclos, constituée de 80 000 spécimens provenant du monde entier et représentant tous les groupes de mollusques, fut acquise en 1854 par Henri Lecoq. Elle est conservée au Muséum d'histoire naturelle Henri Lecoq de Clermont-Ferrand. Elle inclut tous les « types » ( spécimens de référence) de ses espèces,.
 </t>
         </is>
       </c>
